--- a/data/trans_dic/P55_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros)</t>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>44,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,16; 66,28</t>
+          <t>49,03; 65,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,56; 48,83</t>
+          <t>55,35; 79,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,02; 51,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,92; 46,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,23; 56,08</t>
+          <t>42,48; 53,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,26; 45,5</t>
+          <t>35,66; 52,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48,32; 57,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46,42; 62,03</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>64,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>55,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,08; 76,1</t>
+          <t>65,58; 75,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,41; 55,42</t>
+          <t>68,16; 79,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,32; 68,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,88; 49,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 71,49</t>
+          <t>60,38; 68,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,34; 50,98</t>
+          <t>49,92; 60,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64,81; 71,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60,66; 68,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>82,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>84,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,52; 88,17</t>
+          <t>79,07; 87,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,11; 85,42</t>
+          <t>79,14; 90,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,79; 87,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,99; 72,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,51; 86,88</t>
+          <t>80,34; 86,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,94; 76,99</t>
+          <t>78,58; 86,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81,48; 86,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81,21; 87,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,17%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>65,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,82; 76,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,76; 57,45</t>
+          <t>64,03; 75,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,78; 68,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,99; 51,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 71,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,74; 53,43</t>
+          <t>59,62; 70,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64,27; 71,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,95%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>69,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>69,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69,16; 75,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 78,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64,43; 69,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60,08; 66,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67,97; 71,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 71,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>401901</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>277182</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>400222</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>263044</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>802123</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>540225</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>334726; 445705</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>233301; 332987</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>356196; 446635</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>211195; 313505</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>735051; 868384</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>470547; 628823</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>846.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1096473</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>759237</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>907582</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>578247</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2004055</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1337484</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1009447; 1168202</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>701280; 813741</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>844124; 964178</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>518981; 632484</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1903560; 2101599</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1254847; 1414735</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>869.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>896126</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>702959</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>939464</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>733132</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1835590</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1436091</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>837714; 931075</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>641387; 737236</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>899838; 974108</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>694189; 765529</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1775884; 1888509</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1375656; 1486024</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>731680</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>601964</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1333644</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>664442; 785656</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>549523; 652939</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1259413; 1409553</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>980.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>751.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1069.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>814.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2049.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1565.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2394501</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2471059</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2247269</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2176387</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4641768</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4647445</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2269334; 2487252</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2365861; 2573494</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2162695; 2325342</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2064863; 2278042</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4511470; 4766272</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4496300; 4787959</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
